--- a/Code/Results/Cases/Case_5_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_145/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.803943779318331</v>
+        <v>2.157254401178534</v>
       </c>
       <c r="C2">
-        <v>1.016625477848436</v>
+        <v>0.4977145929672133</v>
       </c>
       <c r="D2">
-        <v>0.005876172592163442</v>
+        <v>0.03186391388105481</v>
       </c>
       <c r="E2">
-        <v>0.02735662721791776</v>
+        <v>0.07750110998557247</v>
       </c>
       <c r="F2">
-        <v>2.907313971534961</v>
+        <v>3.371396017997341</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07562625766357556</v>
+        <v>0.1480077482287534</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8757905034996654</v>
+        <v>0.6361323976315276</v>
       </c>
       <c r="N2">
-        <v>1.297862128135279</v>
+        <v>2.230108892598381</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.29743278755268</v>
+        <v>2.039924398498954</v>
       </c>
       <c r="C3">
-        <v>0.8772342061463121</v>
+        <v>0.4649510196448716</v>
       </c>
       <c r="D3">
-        <v>0.005184802141357636</v>
+        <v>0.03163220842753223</v>
       </c>
       <c r="E3">
-        <v>0.02651729380017009</v>
+        <v>0.07768356930806775</v>
       </c>
       <c r="F3">
-        <v>2.65746700083092</v>
+        <v>3.329408434567185</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07242549127001752</v>
+        <v>0.1480519533643516</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.764114443051767</v>
+        <v>0.6121101459420188</v>
       </c>
       <c r="N3">
-        <v>1.327676152261773</v>
+        <v>2.242756627550861</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.992951398277</v>
+        <v>1.96927304524803</v>
       </c>
       <c r="C4">
-        <v>0.793429724413329</v>
+        <v>0.4451547636298585</v>
       </c>
       <c r="D4">
-        <v>0.004784333528993656</v>
+        <v>0.03148807221397121</v>
       </c>
       <c r="E4">
-        <v>0.02603285575727288</v>
+        <v>0.07781798545151464</v>
       </c>
       <c r="F4">
-        <v>2.51071085137373</v>
+        <v>3.3055279485515</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07059587958909219</v>
+        <v>0.1481383786381478</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6970748742721256</v>
+        <v>0.5977641422963131</v>
       </c>
       <c r="N4">
-        <v>1.348138114159241</v>
+        <v>2.251219209281018</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.870293100875699</v>
+        <v>1.940828943214342</v>
       </c>
       <c r="C5">
-        <v>0.7596637097385894</v>
+        <v>0.4371674501138614</v>
       </c>
       <c r="D5">
-        <v>0.00462611395774104</v>
+        <v>0.03142884699622872</v>
       </c>
       <c r="E5">
-        <v>0.02584279462233674</v>
+        <v>0.0778784010526552</v>
       </c>
       <c r="F5">
-        <v>2.452408835262602</v>
+        <v>3.296271856290517</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06988177827022923</v>
+        <v>0.14818848510156</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6700919315220872</v>
+        <v>0.5920190565311003</v>
       </c>
       <c r="N5">
-        <v>1.356984284770121</v>
+        <v>2.254842311893064</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.850005562299657</v>
+        <v>1.936126699630393</v>
       </c>
       <c r="C6">
-        <v>0.7540784090045918</v>
+        <v>0.4358459600357776</v>
       </c>
       <c r="D6">
-        <v>0.004600113269072281</v>
+        <v>0.03141898264304288</v>
       </c>
       <c r="E6">
-        <v>0.02581166751236807</v>
+        <v>0.07788877398071126</v>
       </c>
       <c r="F6">
-        <v>2.442813893824393</v>
+        <v>3.294763533110313</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06976503116753463</v>
+        <v>0.1481977038444953</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6656304098926995</v>
+        <v>0.5910711768302335</v>
       </c>
       <c r="N6">
-        <v>1.358482908613453</v>
+        <v>2.255454446561266</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.991291708858341</v>
+        <v>1.96888803690797</v>
       </c>
       <c r="C7">
-        <v>0.7929728644024578</v>
+        <v>0.4450467218092626</v>
       </c>
       <c r="D7">
-        <v>0.004782180905032796</v>
+        <v>0.03148727548558483</v>
       </c>
       <c r="E7">
-        <v>0.0260302632907079</v>
+        <v>0.07781877738676979</v>
       </c>
       <c r="F7">
-        <v>2.509918700425331</v>
+        <v>3.305401195893268</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07058612481237247</v>
+        <v>0.1481389941378133</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6967096722914548</v>
+        <v>0.5976862536554748</v>
       </c>
       <c r="N7">
-        <v>1.348255403873935</v>
+        <v>2.251267365937139</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.627807381102286</v>
+        <v>2.116508977307944</v>
       </c>
       <c r="C8">
-        <v>0.9681533913479257</v>
+        <v>0.4863506388054191</v>
       </c>
       <c r="D8">
-        <v>0.00563211463317792</v>
+        <v>0.03178439813079592</v>
       </c>
       <c r="E8">
-        <v>0.02706054062941021</v>
+        <v>0.07755938231196069</v>
       </c>
       <c r="F8">
-        <v>2.819678670834151</v>
+        <v>3.356522875535859</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07449280820175375</v>
+        <v>0.1480106735608331</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.836936341382895</v>
+        <v>0.6277654121183645</v>
       </c>
       <c r="N8">
-        <v>1.307672742148341</v>
+        <v>2.234324789872332</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.938875442929088</v>
+        <v>2.417154895887904</v>
       </c>
       <c r="C9">
-        <v>1.329051405412883</v>
+        <v>0.5699344432966882</v>
       </c>
       <c r="D9">
-        <v>0.007545488510674936</v>
+        <v>0.03235310807239777</v>
       </c>
       <c r="E9">
-        <v>0.0293477765688035</v>
+        <v>0.0772278867995162</v>
       </c>
       <c r="F9">
-        <v>3.48853943361263</v>
+        <v>3.47196630502637</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08336398801253608</v>
+        <v>0.1482304800102483</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.126530331819851</v>
+        <v>0.6899810506752573</v>
       </c>
       <c r="N9">
-        <v>1.24694403281633</v>
+        <v>2.206660632456362</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.958265404148278</v>
+        <v>2.645058048405929</v>
       </c>
       <c r="C10">
-        <v>1.609974860050613</v>
+        <v>0.6329864294448271</v>
       </c>
       <c r="D10">
-        <v>0.009194113087747979</v>
+        <v>0.03276369182073147</v>
       </c>
       <c r="E10">
-        <v>0.03122537695392502</v>
+        <v>0.07709181703292067</v>
       </c>
       <c r="F10">
-        <v>4.031222895112506</v>
+        <v>3.566223261354537</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09083242576388528</v>
+        <v>0.1486810823758731</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.352153032069396</v>
+        <v>0.7377037233240458</v>
       </c>
       <c r="N10">
-        <v>1.216613010729205</v>
+        <v>2.189768822909784</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.438954607682774</v>
+        <v>2.750309852434327</v>
       </c>
       <c r="C11">
-        <v>1.742587621060125</v>
+        <v>0.6620420758729892</v>
       </c>
       <c r="D11">
-        <v>0.01002270881563128</v>
+        <v>0.03294918205931019</v>
       </c>
       <c r="E11">
-        <v>0.03213151766531297</v>
+        <v>0.07705314888689152</v>
       </c>
       <c r="F11">
-        <v>4.292925071123165</v>
+        <v>3.611193115692458</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09449303507459916</v>
+        <v>0.148949248341431</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.45863932028179</v>
+        <v>0.7598610339173177</v>
       </c>
       <c r="N11">
-        <v>1.206666036578028</v>
+        <v>2.18283930610842</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.623890113903599</v>
+        <v>2.790396332125738</v>
       </c>
       <c r="C12">
-        <v>1.793636229624326</v>
+        <v>0.6730994220952766</v>
       </c>
       <c r="D12">
-        <v>0.01035046493381486</v>
+        <v>0.03301926012349909</v>
       </c>
       <c r="E12">
-        <v>0.03248303360440552</v>
+        <v>0.07704183779620877</v>
       </c>
       <c r="F12">
-        <v>4.394525012030044</v>
+        <v>3.628525898786961</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09592266689528373</v>
+        <v>0.1490599119669369</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.499620930823511</v>
+        <v>0.7683165694784435</v>
       </c>
       <c r="N12">
-        <v>1.203528404296208</v>
+        <v>2.180324608233406</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.583923269123318</v>
+        <v>2.781752716863991</v>
       </c>
       <c r="C13">
-        <v>1.782602592450019</v>
+        <v>0.6707155805862612</v>
       </c>
       <c r="D13">
-        <v>0.01027920651222836</v>
+        <v>0.03300417445797876</v>
       </c>
       <c r="E13">
-        <v>0.03240693976679765</v>
+        <v>0.07704412580201137</v>
       </c>
       <c r="F13">
-        <v>4.372526030637005</v>
+        <v>3.624779421606263</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.09561273950025395</v>
+        <v>0.1490356727096014</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.490763724366616</v>
+        <v>0.7664926158031307</v>
       </c>
       <c r="N13">
-        <v>1.204174836868617</v>
+        <v>2.18086131606114</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.454108102230464</v>
+        <v>2.753603165805316</v>
       </c>
       <c r="C14">
-        <v>1.746769893162991</v>
+        <v>0.6629506704398977</v>
       </c>
       <c r="D14">
-        <v>0.0100493760238578</v>
+        <v>0.03295495056517339</v>
       </c>
       <c r="E14">
-        <v>0.03216026347425682</v>
+        <v>0.07705215159422707</v>
       </c>
       <c r="F14">
-        <v>4.301231366054054</v>
+        <v>3.612612991494842</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09460974595911864</v>
+        <v>0.1489581698559732</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.461997067573009</v>
+        <v>0.7605553687665605</v>
       </c>
       <c r="N14">
-        <v>1.206394818002593</v>
+        <v>2.182630223804182</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.374986621176902</v>
+        <v>2.736390785550498</v>
       </c>
       <c r="C15">
-        <v>1.724934040808591</v>
+        <v>0.658201578879698</v>
       </c>
       <c r="D15">
-        <v>0.00991050780382885</v>
+        <v>0.03292477893222312</v>
       </c>
       <c r="E15">
-        <v>0.03201028761611724</v>
+        <v>0.07705750125075816</v>
       </c>
       <c r="F15">
-        <v>4.257898645011579</v>
+        <v>3.605200335126199</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09400122152347734</v>
+        <v>0.1489118850425797</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.444465666642529</v>
+        <v>0.7569271226254273</v>
       </c>
       <c r="N15">
-        <v>1.20783899212276</v>
+        <v>2.183727997933005</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.927231054148706</v>
+        <v>2.63821159918723</v>
       </c>
       <c r="C16">
-        <v>1.601416575425503</v>
+        <v>0.6310951623417509</v>
       </c>
       <c r="D16">
-        <v>0.009141762109159401</v>
+        <v>0.03275154557570481</v>
       </c>
       <c r="E16">
-        <v>0.03116727900865612</v>
+        <v>0.07709481078586045</v>
       </c>
       <c r="F16">
-        <v>4.014448498561649</v>
+        <v>3.563326713418974</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09059895078267743</v>
+        <v>0.148664831003579</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.34527988485371</v>
+        <v>0.7362647588057314</v>
       </c>
       <c r="N16">
-        <v>1.217346721159601</v>
+        <v>2.190236940317135</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.65720376949065</v>
+        <v>2.578388043800487</v>
       </c>
       <c r="C17">
-        <v>1.526968330811314</v>
+        <v>0.6145624664036404</v>
       </c>
       <c r="D17">
-        <v>0.008692051167000336</v>
+        <v>0.03264495850156912</v>
       </c>
       <c r="E17">
-        <v>0.03066404041396176</v>
+        <v>0.07712364253583104</v>
       </c>
       <c r="F17">
-        <v>3.869141476945032</v>
+        <v>3.538176407387112</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.08858288952306737</v>
+        <v>0.148529474878579</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.28548754925761</v>
+        <v>0.72370425237159</v>
       </c>
       <c r="N17">
-        <v>1.224215560310839</v>
+        <v>2.194423844988492</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.50345581759052</v>
+        <v>2.544127413066064</v>
       </c>
       <c r="C18">
-        <v>1.484591822355299</v>
+        <v>0.6050883445625459</v>
       </c>
       <c r="D18">
-        <v>0.00844060299105287</v>
+        <v>0.03258353001894854</v>
       </c>
       <c r="E18">
-        <v>0.03037942497192958</v>
+        <v>0.07714241289026802</v>
       </c>
       <c r="F18">
-        <v>3.786935819563638</v>
+        <v>3.523907340955134</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.08744769462219892</v>
+        <v>0.1484575670596797</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.25145179395733</v>
+        <v>0.7165219138568091</v>
       </c>
       <c r="N18">
-        <v>1.228523623882239</v>
+        <v>2.196903022169579</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.451654994586931</v>
+        <v>2.532552730047826</v>
       </c>
       <c r="C19">
-        <v>1.470316297560544</v>
+        <v>0.6018865599617698</v>
       </c>
       <c r="D19">
-        <v>0.008356632351205207</v>
+        <v>0.0325627097052319</v>
       </c>
       <c r="E19">
-        <v>0.03028386408601413</v>
+        <v>0.07714914411894114</v>
       </c>
       <c r="F19">
-        <v>3.759327652280319</v>
+        <v>3.519109781418706</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.08706736951936023</v>
+        <v>0.1484342405717172</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.239985971394489</v>
+        <v>0.7140973152154686</v>
       </c>
       <c r="N19">
-        <v>1.230041523006506</v>
+        <v>2.197754594449407</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.685783537368479</v>
+        <v>2.58474099337559</v>
       </c>
       <c r="C20">
-        <v>1.534846576138193</v>
+        <v>0.6163187658636957</v>
       </c>
       <c r="D20">
-        <v>0.008739159279723907</v>
+        <v>0.03265631739050612</v>
       </c>
       <c r="E20">
-        <v>0.03071710462355348</v>
+        <v>0.07712034705570048</v>
       </c>
       <c r="F20">
-        <v>3.884465285634349</v>
+        <v>3.540833319601859</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.08879494061095983</v>
+        <v>0.1485432682307177</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.291815080332441</v>
+        <v>0.7250369747450947</v>
       </c>
       <c r="N20">
-        <v>1.223446875370172</v>
+        <v>2.193970789588292</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.492154894563214</v>
+        <v>2.761865106983635</v>
       </c>
       <c r="C21">
-        <v>1.757271057322043</v>
+        <v>0.6652299230233325</v>
       </c>
       <c r="D21">
-        <v>0.01011647931684756</v>
+        <v>0.03296941306427748</v>
       </c>
       <c r="E21">
-        <v>0.03223248295796033</v>
+        <v>0.07704970387245602</v>
       </c>
       <c r="F21">
-        <v>4.322101300873982</v>
+        <v>3.616178302189354</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09490312156216163</v>
+        <v>0.1489806867076666</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.470427773098038</v>
+        <v>0.7622975118964774</v>
       </c>
       <c r="N21">
-        <v>1.205725020276475</v>
+        <v>2.182107677955386</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.036396683710905</v>
+        <v>2.878967492596189</v>
       </c>
       <c r="C22">
-        <v>1.907563788886591</v>
+        <v>0.6975149274951491</v>
       </c>
       <c r="D22">
-        <v>0.01109979702534325</v>
+        <v>0.03317309921838252</v>
       </c>
       <c r="E22">
-        <v>0.03327224251902017</v>
+        <v>0.07702295022560257</v>
       </c>
       <c r="F22">
-        <v>4.622903215849163</v>
+        <v>3.667192022681007</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09915163724424758</v>
+        <v>0.1493197083364493</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.591055388854969</v>
+        <v>0.7870288449404228</v>
       </c>
       <c r="N22">
-        <v>1.197853981453406</v>
+        <v>2.174992280748953</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.744172068982152</v>
+        <v>2.816343964809278</v>
       </c>
       <c r="C23">
-        <v>1.8268472020643</v>
+        <v>0.6802543229737239</v>
       </c>
       <c r="D23">
-        <v>0.01056634500195663</v>
+        <v>0.03306446673221153</v>
       </c>
       <c r="E23">
-        <v>0.03271244937147877</v>
+        <v>0.07703545546358725</v>
       </c>
       <c r="F23">
-        <v>4.460869908753807</v>
+        <v>3.639801994878383</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09685856806183324</v>
+        <v>0.1491338936184832</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.526278923855372</v>
+        <v>0.7737943420799382</v>
       </c>
       <c r="N23">
-        <v>1.201687032467234</v>
+        <v>2.178731259011727</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.672858004258046</v>
+        <v>2.581868411683615</v>
       </c>
       <c r="C24">
-        <v>1.531283508445711</v>
+        <v>0.615524647186021</v>
       </c>
       <c r="D24">
-        <v>0.008717839792348414</v>
+        <v>0.03265118250626386</v>
       </c>
       <c r="E24">
-        <v>0.03069309971113121</v>
+        <v>0.07712183010590046</v>
       </c>
       <c r="F24">
-        <v>3.877533265714533</v>
+        <v>3.539631537438652</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.08869899838865791</v>
+        <v>0.1485370138492428</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.288953353216215</v>
+        <v>0.724434329953894</v>
       </c>
       <c r="N24">
-        <v>1.22379328492994</v>
+        <v>2.194175391516694</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.575770145450804</v>
+        <v>2.334605377797743</v>
       </c>
       <c r="C25">
-        <v>1.229067160561954</v>
+        <v>0.5470391175137479</v>
       </c>
       <c r="D25">
-        <v>0.006992834538880111</v>
+        <v>0.03220062189915218</v>
       </c>
       <c r="E25">
-        <v>0.02869716301624159</v>
+        <v>0.07729865296212957</v>
       </c>
       <c r="F25">
-        <v>3.299703695764293</v>
+        <v>3.439090955950121</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.08081423821383993</v>
+        <v>0.1481203722278224</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.046247228712105</v>
+        <v>0.672799789497752</v>
       </c>
       <c r="N25">
-        <v>1.261089376800271</v>
+        <v>2.213544820171904</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_145/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_145/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.157254401178534</v>
+        <v>3.803943779318274</v>
       </c>
       <c r="C2">
-        <v>0.4977145929672133</v>
+        <v>1.016625477848322</v>
       </c>
       <c r="D2">
-        <v>0.03186391388105481</v>
+        <v>0.005876172592046203</v>
       </c>
       <c r="E2">
-        <v>0.07750110998557247</v>
+        <v>0.02735662721792131</v>
       </c>
       <c r="F2">
-        <v>3.371396017997341</v>
+        <v>2.907313971534876</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1480077482287534</v>
+        <v>0.0756262576636253</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6361323976315276</v>
+        <v>0.8757905034996583</v>
       </c>
       <c r="N2">
-        <v>2.230108892598381</v>
+        <v>1.297862128135279</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.039924398498954</v>
+        <v>3.297432787552566</v>
       </c>
       <c r="C3">
-        <v>0.4649510196448716</v>
+        <v>0.8772342061462552</v>
       </c>
       <c r="D3">
-        <v>0.03163220842753223</v>
+        <v>0.005184802141249278</v>
       </c>
       <c r="E3">
-        <v>0.07768356930806775</v>
+        <v>0.02651729380011503</v>
       </c>
       <c r="F3">
-        <v>3.329408434567185</v>
+        <v>2.657467000830877</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1480519533643516</v>
+        <v>0.0724254912701312</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6121101459420188</v>
+        <v>0.7641144430517741</v>
       </c>
       <c r="N3">
-        <v>2.242756627550861</v>
+        <v>1.327676152261759</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.96927304524803</v>
+        <v>2.992951398277</v>
       </c>
       <c r="C4">
-        <v>0.4451547636298585</v>
+        <v>0.793429724413528</v>
       </c>
       <c r="D4">
-        <v>0.03148807221397121</v>
+        <v>0.004784333529115337</v>
       </c>
       <c r="E4">
-        <v>0.07781798545151464</v>
+        <v>0.02603285575726932</v>
       </c>
       <c r="F4">
-        <v>3.3055279485515</v>
+        <v>2.51071085137373</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1481383786381478</v>
+        <v>0.07059587958919167</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5977641422963131</v>
+        <v>0.6970748742721327</v>
       </c>
       <c r="N4">
-        <v>2.251219209281018</v>
+        <v>1.348138114159241</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.940828943214342</v>
+        <v>2.870293100875585</v>
       </c>
       <c r="C5">
-        <v>0.4371674501138614</v>
+        <v>0.7596637097385894</v>
       </c>
       <c r="D5">
-        <v>0.03142884699622872</v>
+        <v>0.004626113957844069</v>
       </c>
       <c r="E5">
-        <v>0.0778784010526552</v>
+        <v>0.0258427946223474</v>
       </c>
       <c r="F5">
-        <v>3.296271856290517</v>
+        <v>2.452408835262617</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.14818848510156</v>
+        <v>0.06988177827018305</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5920190565311003</v>
+        <v>0.6700919315220801</v>
       </c>
       <c r="N5">
-        <v>2.254842311893064</v>
+        <v>1.356984284770078</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.936126699630393</v>
+        <v>2.850005562299486</v>
       </c>
       <c r="C6">
-        <v>0.4358459600357776</v>
+        <v>0.7540784090048476</v>
       </c>
       <c r="D6">
-        <v>0.03141898264304288</v>
+        <v>0.004600113269081163</v>
       </c>
       <c r="E6">
-        <v>0.07788877398071126</v>
+        <v>0.02581166751239916</v>
       </c>
       <c r="F6">
-        <v>3.294763533110313</v>
+        <v>2.442813893824365</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1481977038444953</v>
+        <v>0.06976503116755239</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5910711768302335</v>
+        <v>0.6656304098926924</v>
       </c>
       <c r="N6">
-        <v>2.255454446561266</v>
+        <v>1.358482908613453</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.96888803690797</v>
+        <v>2.991291708858398</v>
       </c>
       <c r="C7">
-        <v>0.4450467218092626</v>
+        <v>0.7929728644024294</v>
       </c>
       <c r="D7">
-        <v>0.03148727548558483</v>
+        <v>0.00478218090493332</v>
       </c>
       <c r="E7">
-        <v>0.07781877738676979</v>
+        <v>0.02603026329076652</v>
       </c>
       <c r="F7">
-        <v>3.305401195893268</v>
+        <v>2.509918700425288</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1481389941378133</v>
+        <v>0.07058612481238313</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5976862536554748</v>
+        <v>0.696709672291469</v>
       </c>
       <c r="N7">
-        <v>2.251267365937139</v>
+        <v>1.348255403873907</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.116508977307944</v>
+        <v>3.6278073811024</v>
       </c>
       <c r="C8">
-        <v>0.4863506388054191</v>
+        <v>0.9681533913479825</v>
       </c>
       <c r="D8">
-        <v>0.03178439813079592</v>
+        <v>0.005632114632952323</v>
       </c>
       <c r="E8">
-        <v>0.07755938231196069</v>
+        <v>0.02706054062944219</v>
       </c>
       <c r="F8">
-        <v>3.356522875535859</v>
+        <v>2.819678670834151</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1480106735608331</v>
+        <v>0.0744928082017573</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6277654121183645</v>
+        <v>0.8369363413828808</v>
       </c>
       <c r="N8">
-        <v>2.234324789872332</v>
+        <v>1.307672742148313</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.417154895887904</v>
+        <v>4.938875442929145</v>
       </c>
       <c r="C9">
-        <v>0.5699344432966882</v>
+        <v>1.329051405413395</v>
       </c>
       <c r="D9">
-        <v>0.03235310807239777</v>
+        <v>0.007545488510894316</v>
       </c>
       <c r="E9">
-        <v>0.0772278867995162</v>
+        <v>0.02934777656880527</v>
       </c>
       <c r="F9">
-        <v>3.47196630502637</v>
+        <v>3.488539433612658</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1482304800102483</v>
+        <v>0.08336398801259293</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.6899810506752573</v>
+        <v>1.126530331819865</v>
       </c>
       <c r="N9">
-        <v>2.206660632456362</v>
+        <v>1.246944032816302</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.645058048405929</v>
+        <v>5.958265404148278</v>
       </c>
       <c r="C10">
-        <v>0.6329864294448271</v>
+        <v>1.609974860050727</v>
       </c>
       <c r="D10">
-        <v>0.03276369182073147</v>
+        <v>0.009194113087866995</v>
       </c>
       <c r="E10">
-        <v>0.07709181703292067</v>
+        <v>0.03122537695395167</v>
       </c>
       <c r="F10">
-        <v>3.566223261354537</v>
+        <v>4.031222895112535</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1486810823758731</v>
+        <v>0.09083242576394923</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.7377037233240458</v>
+        <v>1.352153032069424</v>
       </c>
       <c r="N10">
-        <v>2.189768822909784</v>
+        <v>1.216613010729276</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.750309852434327</v>
+        <v>6.438954607682888</v>
       </c>
       <c r="C11">
-        <v>0.6620420758729892</v>
+        <v>1.742587621060125</v>
       </c>
       <c r="D11">
-        <v>0.03294918205931019</v>
+        <v>0.01002270881638623</v>
       </c>
       <c r="E11">
-        <v>0.07705314888689152</v>
+        <v>0.03213151766535205</v>
       </c>
       <c r="F11">
-        <v>3.611193115692458</v>
+        <v>4.292925071123165</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.148949248341431</v>
+        <v>0.09449303507462758</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.7598610339173177</v>
+        <v>1.45863932028179</v>
       </c>
       <c r="N11">
-        <v>2.18283930610842</v>
+        <v>1.206666036578014</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.790396332125738</v>
+        <v>6.623890113903769</v>
       </c>
       <c r="C12">
-        <v>0.6730994220952766</v>
+        <v>1.793636229624894</v>
       </c>
       <c r="D12">
-        <v>0.03301926012349909</v>
+        <v>0.01035046493388769</v>
       </c>
       <c r="E12">
-        <v>0.07704183779620877</v>
+        <v>0.03248303360436644</v>
       </c>
       <c r="F12">
-        <v>3.628525898786961</v>
+        <v>4.394525012030016</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1490599119669369</v>
+        <v>0.09592266689534767</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.7683165694784435</v>
+        <v>1.499620930823497</v>
       </c>
       <c r="N12">
-        <v>2.180324608233406</v>
+        <v>1.203528404296208</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.781752716863991</v>
+        <v>6.583923269123375</v>
       </c>
       <c r="C13">
-        <v>0.6707155805862612</v>
+        <v>1.782602592450871</v>
       </c>
       <c r="D13">
-        <v>0.03300417445797876</v>
+        <v>0.01027920651220882</v>
       </c>
       <c r="E13">
-        <v>0.07704412580201137</v>
+        <v>0.03240693976678877</v>
       </c>
       <c r="F13">
-        <v>3.624779421606263</v>
+        <v>4.372526030637005</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1490356727096014</v>
+        <v>0.09561273950021132</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.7664926158031307</v>
+        <v>1.490763724366616</v>
       </c>
       <c r="N13">
-        <v>2.18086131606114</v>
+        <v>1.204174836868589</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.753603165805316</v>
+        <v>6.454108102230578</v>
       </c>
       <c r="C14">
-        <v>0.6629506704398977</v>
+        <v>1.746769893162821</v>
       </c>
       <c r="D14">
-        <v>0.03295495056517339</v>
+        <v>0.01004937602394484</v>
       </c>
       <c r="E14">
-        <v>0.07705215159422707</v>
+        <v>0.03216026347425149</v>
       </c>
       <c r="F14">
-        <v>3.612612991494842</v>
+        <v>4.301231366053969</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1489581698559732</v>
+        <v>0.09460974595907601</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.7605553687665605</v>
+        <v>1.461997067573023</v>
       </c>
       <c r="N14">
-        <v>2.182630223804182</v>
+        <v>1.206394818002607</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.736390785550498</v>
+        <v>6.374986621176845</v>
       </c>
       <c r="C15">
-        <v>0.658201578879698</v>
+        <v>1.724934040808307</v>
       </c>
       <c r="D15">
-        <v>0.03292477893222312</v>
+        <v>0.009910507803965629</v>
       </c>
       <c r="E15">
-        <v>0.07705750125075816</v>
+        <v>0.032010287616135</v>
       </c>
       <c r="F15">
-        <v>3.605200335126199</v>
+        <v>4.257898645011579</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1489118850425797</v>
+        <v>0.09400122152353418</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.7569271226254273</v>
+        <v>1.444465666642529</v>
       </c>
       <c r="N15">
-        <v>2.183727997933005</v>
+        <v>1.207838992122802</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.63821159918723</v>
+        <v>5.927231054148592</v>
       </c>
       <c r="C16">
-        <v>0.6310951623417509</v>
+        <v>1.601416575425276</v>
       </c>
       <c r="D16">
-        <v>0.03275154557570481</v>
+        <v>0.009141762109397433</v>
       </c>
       <c r="E16">
-        <v>0.07709481078586045</v>
+        <v>0.03116727900870053</v>
       </c>
       <c r="F16">
-        <v>3.563326713418974</v>
+        <v>4.01444849856162</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.148664831003579</v>
+        <v>0.09059895078267033</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.7362647588057314</v>
+        <v>1.34527988485371</v>
       </c>
       <c r="N16">
-        <v>2.190236940317135</v>
+        <v>1.217346721159615</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.578388043800487</v>
+        <v>5.657203769490593</v>
       </c>
       <c r="C17">
-        <v>0.6145624664036404</v>
+        <v>1.526968330811599</v>
       </c>
       <c r="D17">
-        <v>0.03264495850156912</v>
+        <v>0.00869205116687688</v>
       </c>
       <c r="E17">
-        <v>0.07712364253583104</v>
+        <v>0.03066404041400972</v>
       </c>
       <c r="F17">
-        <v>3.538176407387112</v>
+        <v>3.869141476944975</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.148529474878579</v>
+        <v>0.08858288952306026</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.72370425237159</v>
+        <v>1.285487549257596</v>
       </c>
       <c r="N17">
-        <v>2.194423844988492</v>
+        <v>1.224215560310796</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.544127413066064</v>
+        <v>5.503455817590577</v>
       </c>
       <c r="C18">
-        <v>0.6050883445625459</v>
+        <v>1.484591822355299</v>
       </c>
       <c r="D18">
-        <v>0.03258353001894854</v>
+        <v>0.008440602990910762</v>
       </c>
       <c r="E18">
-        <v>0.07714241289026802</v>
+        <v>0.0303794249719278</v>
       </c>
       <c r="F18">
-        <v>3.523907340955134</v>
+        <v>3.786935819563666</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1484575670596797</v>
+        <v>0.08744769462211366</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7165219138568091</v>
+        <v>1.251451793957315</v>
       </c>
       <c r="N18">
-        <v>2.196903022169579</v>
+        <v>1.228523623882239</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.532552730047826</v>
+        <v>5.451654994586761</v>
       </c>
       <c r="C19">
-        <v>0.6018865599617698</v>
+        <v>1.470316297560316</v>
       </c>
       <c r="D19">
-        <v>0.0325627097052319</v>
+        <v>0.008356632351212312</v>
       </c>
       <c r="E19">
-        <v>0.07714914411894114</v>
+        <v>0.03028386408601769</v>
       </c>
       <c r="F19">
-        <v>3.519109781418706</v>
+        <v>3.759327652280319</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1484342405717172</v>
+        <v>0.08706736951924654</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.7140973152154686</v>
+        <v>1.239985971394532</v>
       </c>
       <c r="N19">
-        <v>2.197754594449407</v>
+        <v>1.230041523006477</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.58474099337559</v>
+        <v>5.685783537368593</v>
       </c>
       <c r="C20">
-        <v>0.6163187658636957</v>
+        <v>1.53484657613825</v>
       </c>
       <c r="D20">
-        <v>0.03265631739050612</v>
+        <v>0.008739159279373077</v>
       </c>
       <c r="E20">
-        <v>0.07712034705570048</v>
+        <v>0.03071710462352861</v>
       </c>
       <c r="F20">
-        <v>3.540833319601859</v>
+        <v>3.884465285634349</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1485432682307177</v>
+        <v>0.08879494061098114</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.7250369747450947</v>
+        <v>1.291815080332441</v>
       </c>
       <c r="N20">
-        <v>2.193970789588292</v>
+        <v>1.223446875370101</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.761865106983635</v>
+        <v>6.492154894563157</v>
       </c>
       <c r="C21">
-        <v>0.6652299230233325</v>
+        <v>1.757271057322214</v>
       </c>
       <c r="D21">
-        <v>0.03296941306427748</v>
+        <v>0.01011647931647452</v>
       </c>
       <c r="E21">
-        <v>0.07704970387245602</v>
+        <v>0.03223248295789283</v>
       </c>
       <c r="F21">
-        <v>3.616178302189354</v>
+        <v>4.322101300873953</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1489806867076666</v>
+        <v>0.09490312156227532</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.7622975118964774</v>
+        <v>1.470427773098024</v>
       </c>
       <c r="N21">
-        <v>2.182107677955386</v>
+        <v>1.205725020276489</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.878967492596189</v>
+        <v>7.036396683711075</v>
       </c>
       <c r="C22">
-        <v>0.6975149274951491</v>
+        <v>1.907563788886762</v>
       </c>
       <c r="D22">
-        <v>0.03317309921838252</v>
+        <v>0.01109979702556707</v>
       </c>
       <c r="E22">
-        <v>0.07702295022560257</v>
+        <v>0.0332722425190628</v>
       </c>
       <c r="F22">
-        <v>3.667192022681007</v>
+        <v>4.622903215849163</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1493197083364493</v>
+        <v>0.09915163724428311</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.7870288449404228</v>
+        <v>1.591055388854969</v>
       </c>
       <c r="N22">
-        <v>2.174992280748953</v>
+        <v>1.197853981453406</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.816343964809278</v>
+        <v>6.744172068982039</v>
       </c>
       <c r="C23">
-        <v>0.6802543229737239</v>
+        <v>1.826847202064585</v>
       </c>
       <c r="D23">
-        <v>0.03306446673221153</v>
+        <v>0.01056634500218401</v>
       </c>
       <c r="E23">
-        <v>0.07703545546358725</v>
+        <v>0.03271244937145035</v>
       </c>
       <c r="F23">
-        <v>3.639801994878383</v>
+        <v>4.460869908753779</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1491338936184832</v>
+        <v>0.09685856806203219</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.7737943420799382</v>
+        <v>1.526278923855358</v>
       </c>
       <c r="N23">
-        <v>2.178731259011727</v>
+        <v>1.201687032467234</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.581868411683615</v>
+        <v>5.67285800425816</v>
       </c>
       <c r="C24">
-        <v>0.615524647186021</v>
+        <v>1.531283508445767</v>
       </c>
       <c r="D24">
-        <v>0.03265118250626386</v>
+        <v>0.00871783979235552</v>
       </c>
       <c r="E24">
-        <v>0.07712183010590046</v>
+        <v>0.03069309971113654</v>
       </c>
       <c r="F24">
-        <v>3.539631537438652</v>
+        <v>3.877533265714533</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1485370138492428</v>
+        <v>0.08869899838880002</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.724434329953894</v>
+        <v>1.288953353216215</v>
       </c>
       <c r="N24">
-        <v>2.194175391516694</v>
+        <v>1.22379328492994</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.334605377797743</v>
+        <v>4.575770145451031</v>
       </c>
       <c r="C25">
-        <v>0.5470391175137479</v>
+        <v>1.229067160562124</v>
       </c>
       <c r="D25">
-        <v>0.03220062189915218</v>
+        <v>0.006992834538897874</v>
       </c>
       <c r="E25">
-        <v>0.07729865296212957</v>
+        <v>0.02869716301621317</v>
       </c>
       <c r="F25">
-        <v>3.439090955950121</v>
+        <v>3.299703695764265</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1481203722278224</v>
+        <v>0.08081423821391098</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.672799789497752</v>
+        <v>1.046247228712083</v>
       </c>
       <c r="N25">
-        <v>2.213544820171904</v>
+        <v>1.261089376800271</v>
       </c>
       <c r="O25">
         <v>0</v>
